--- a/HoI2Editor/Documents/Design/units.xlsx
+++ b/HoI2Editor/Documents/Design/units.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1580">
   <si>
     <t>Infantry</t>
   </si>
@@ -5241,6 +5241,14 @@
     <rPh sb="6" eb="7">
       <t>スウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME_LIGHT_CRUISER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME_BATTLECRUISER</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -17474,7 +17482,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D32"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17772,7 +17780,7 @@
         <v>203</v>
       </c>
       <c r="C21" t="s">
-        <v>1262</v>
+        <v>1578</v>
       </c>
       <c r="D21" t="s">
         <v>492</v>
@@ -17800,7 +17808,7 @@
         <v>205</v>
       </c>
       <c r="C23" t="s">
-        <v>1260</v>
+        <v>1579</v>
       </c>
       <c r="D23" t="s">
         <v>492</v>
@@ -17943,7 +17951,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/HoI2Editor/Documents/Design/units.xlsx
+++ b/HoI2Editor/Documents/Design/units.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="編集項目" sheetId="5" r:id="rId1"/>
@@ -14,14 +14,14 @@
     <sheet name="EquipmentType" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">編集項目!$A$1:$N$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">編集項目!$A$1:$O$72</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4002" uniqueCount="1591">
   <si>
     <t>Infantry</t>
   </si>
@@ -5251,12 +5251,56 @@
     <t>NAME_BATTLECRUISER</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DH1.04</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5266,6 +5310,21 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -5292,9 +5351,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5307,12 +5372,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5354,7 +5422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5389,7 +5457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5598,9 +5666,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N72"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5611,10 +5679,10 @@
   <cols>
     <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="14" width="9" style="1"/>
+    <col min="3" max="15" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>1493</v>
       </c>
@@ -5637,30 +5705,75 @@
         <v>1499</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>1520</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>1521</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1484</v>
       </c>
@@ -5686,7 +5799,7 @@
         <v>1565</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>1565</v>
+        <v>183</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>1565</v>
@@ -5703,8 +5816,11 @@
       <c r="N3" s="1" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O3" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1485</v>
       </c>
@@ -5730,7 +5846,7 @@
         <v>1564</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1565</v>
+        <v>183</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>1565</v>
@@ -5747,8 +5863,11 @@
       <c r="N4" s="1" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O4" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>1486</v>
       </c>
@@ -5774,7 +5893,7 @@
         <v>1564</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>1565</v>
+        <v>183</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>1565</v>
@@ -5791,8 +5910,11 @@
       <c r="N5" s="1" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O5" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>1487</v>
       </c>
@@ -5818,7 +5940,7 @@
         <v>1564</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1565</v>
+        <v>183</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>1565</v>
@@ -5835,8 +5957,11 @@
       <c r="N6" s="1" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O6" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>493</v>
       </c>
@@ -5862,10 +5987,10 @@
         <v>1565</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>1565</v>
@@ -5879,8 +6004,11 @@
       <c r="N7" s="1" t="s">
         <v>1565</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O7" s="1" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>1488</v>
       </c>
@@ -5906,25 +6034,28 @@
         <v>1564</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="N8" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>1489</v>
       </c>
@@ -5950,25 +6081,28 @@
         <v>1564</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="N9" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>1490</v>
       </c>
@@ -5994,10 +6128,10 @@
         <v>1564</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>1565</v>
@@ -6006,13 +6140,16 @@
         <v>1565</v>
       </c>
       <c r="M10" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>1565</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>1491</v>
       </c>
@@ -6038,25 +6175,28 @@
         <v>1564</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="N11" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>1390</v>
       </c>
@@ -6082,25 +6222,28 @@
         <v>1564</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="N12" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>1236</v>
       </c>
@@ -6126,25 +6269,28 @@
         <v>1564</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="N13" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>1492</v>
       </c>
@@ -6170,25 +6316,28 @@
         <v>1564</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>1501</v>
       </c>
@@ -6214,25 +6363,28 @@
         <v>1564</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>1502</v>
       </c>
@@ -6258,25 +6410,28 @@
         <v>1564</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>1568</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>1569</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="L16" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>1503</v>
       </c>
@@ -6302,25 +6457,28 @@
         <v>1565</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>1569</v>
+        <v>183</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="M17" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>1568</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>1504</v>
       </c>
@@ -6346,10 +6504,10 @@
         <v>1565</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>1568</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>1569</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>1569</v>
@@ -6361,10 +6519,13 @@
         <v>1569</v>
       </c>
       <c r="N18" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>1564</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>1505</v>
       </c>
@@ -6390,25 +6551,28 @@
         <v>1564</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>1568</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>1569</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="L19" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>1506</v>
       </c>
@@ -6434,25 +6598,28 @@
         <v>1564</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>1507</v>
       </c>
@@ -6478,25 +6645,28 @@
         <v>1564</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="N21" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O21" s="1" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>1508</v>
       </c>
@@ -6522,25 +6692,28 @@
         <v>1564</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>1509</v>
       </c>
@@ -6566,16 +6739,16 @@
         <v>1565</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>1564</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>1565</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>1565</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>1568</v>
@@ -6583,8 +6756,11 @@
       <c r="N23" s="1" t="s">
         <v>1568</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O23" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>1510</v>
       </c>
@@ -6610,30 +6786,75 @@
         <v>1565</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>1564</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>1568</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>1569</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O24" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>1484</v>
       </c>
@@ -6659,7 +6880,7 @@
         <v>1570</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>1570</v>
@@ -6676,8 +6897,11 @@
       <c r="N26" s="1" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O26" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>1512</v>
       </c>
@@ -6703,25 +6927,28 @@
         <v>1570</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>1570</v>
-      </c>
       <c r="L27" s="1" t="s">
         <v>1570</v>
       </c>
       <c r="M27" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O27" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>1513</v>
       </c>
@@ -6747,25 +6974,28 @@
         <v>1570</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>1571</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>1572</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>1572</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O28" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>1514</v>
       </c>
@@ -6790,20 +7020,29 @@
       <c r="H29" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I29" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="J29" s="1" t="s">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="L29" s="1" t="s">
+        <v>1570</v>
+      </c>
       <c r="M29" s="1" t="s">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O29" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>1515</v>
       </c>
@@ -6829,13 +7068,28 @@
         <v>1570</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>1582</v>
       </c>
       <c r="L30" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N30" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>1516</v>
       </c>
@@ -6860,20 +7114,29 @@
       <c r="H31" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I31" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="K31" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>1572</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="N31" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="O31" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>1517</v>
       </c>
@@ -6899,13 +7162,28 @@
         <v>1570</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>1582</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1582</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>1518</v>
       </c>
@@ -6931,11 +7209,11 @@
         <v>1570</v>
       </c>
       <c r="I33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>1570</v>
-      </c>
       <c r="K33" s="1" t="s">
         <v>1570</v>
       </c>
@@ -6948,8 +7226,11 @@
       <c r="N33" s="1" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O33" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>1519</v>
       </c>
@@ -6975,16 +7256,16 @@
         <v>1570</v>
       </c>
       <c r="I34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="K34" s="1" t="s">
-        <v>1570</v>
-      </c>
       <c r="L34" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>1572</v>
@@ -6992,11 +7273,20 @@
       <c r="N34" s="1" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O34" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>1526</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="D35" s="1" t="s">
         <v>1570</v>
       </c>
@@ -7006,17 +7296,44 @@
       <c r="F35" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="G35" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="I35" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>1568</v>
       </c>
       <c r="L35" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N35" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>1527</v>
       </c>
+      <c r="B36" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="D36" s="1" t="s">
         <v>1570</v>
       </c>
@@ -7026,14 +7343,35 @@
       <c r="F36" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="G36" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="I36" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>1572</v>
       </c>
+      <c r="K36" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="L36" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N36" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>1528</v>
       </c>
@@ -7059,7 +7397,7 @@
         <v>1570</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>1570</v>
@@ -7076,8 +7414,11 @@
       <c r="N37" s="1" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O37" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>1529</v>
       </c>
@@ -7103,13 +7444,13 @@
         <v>1570</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>1570</v>
-      </c>
       <c r="K38" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>1572</v>
@@ -7120,8 +7461,11 @@
       <c r="N38" s="1" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O38" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>1530</v>
       </c>
@@ -7147,16 +7491,16 @@
         <v>1570</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>1572</v>
+        <v>183</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>1572</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>1572</v>
@@ -7164,8 +7508,11 @@
       <c r="N39" s="1" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O39" s="1" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>1531</v>
       </c>
@@ -7191,25 +7538,28 @@
         <v>1570</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>1570</v>
-      </c>
       <c r="L40" s="1" t="s">
         <v>1570</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>1532</v>
       </c>
@@ -7235,28 +7585,46 @@
         <v>1570</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>1570</v>
-      </c>
       <c r="L41" s="1" t="s">
         <v>1570</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>1533</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="G42" s="1" t="s">
         <v>1570</v>
       </c>
@@ -7264,7 +7632,7 @@
         <v>1570</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>1570</v>
@@ -7273,7 +7641,7 @@
         <v>1570</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>1575</v>
@@ -7281,11 +7649,29 @@
       <c r="N42" s="1" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O42" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>1534</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="G43" s="1" t="s">
         <v>1570</v>
       </c>
@@ -7293,7 +7679,7 @@
         <v>1570</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>1570</v>
@@ -7302,7 +7688,7 @@
         <v>1570</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>1575</v>
+        <v>1570</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>1575</v>
@@ -7310,8 +7696,11 @@
       <c r="N43" s="1" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O43" s="1" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>1535</v>
       </c>
@@ -7337,7 +7726,7 @@
         <v>1570</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>1570</v>
@@ -7354,22 +7743,58 @@
       <c r="N44" s="1" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O44" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>1536</v>
       </c>
+      <c r="B45" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="H45" s="1" t="s">
         <v>1570</v>
       </c>
       <c r="I45" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>1574</v>
       </c>
+      <c r="K45" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="L45" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1568</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>1540</v>
       </c>
@@ -7395,13 +7820,28 @@
         <v>1570</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>1568</v>
       </c>
       <c r="L46" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>1574</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N46" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>1539</v>
       </c>
@@ -7427,13 +7867,28 @@
         <v>1570</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>1568</v>
       </c>
       <c r="L47" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N47" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>1538</v>
       </c>
@@ -7459,13 +7914,28 @@
         <v>1570</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>1568</v>
       </c>
       <c r="L48" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N48" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>1537</v>
       </c>
@@ -7491,13 +7961,28 @@
         <v>1570</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>1568</v>
       </c>
       <c r="L49" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N49" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O49" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>1541</v>
       </c>
@@ -7523,13 +8008,28 @@
         <v>1570</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>1585</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1582</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>1542</v>
       </c>
@@ -7554,14 +8054,29 @@
       <c r="H51" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I51" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="J51" s="1" t="s">
-        <v>1570</v>
+        <v>1582</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>1582</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1586</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>1543</v>
       </c>
@@ -7587,11 +8102,11 @@
         <v>1570</v>
       </c>
       <c r="I52" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>1570</v>
-      </c>
       <c r="K52" s="1" t="s">
         <v>1570</v>
       </c>
@@ -7599,13 +8114,16 @@
         <v>1570</v>
       </c>
       <c r="M52" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="N52" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="N52" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O52" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>1544</v>
       </c>
@@ -7630,14 +8148,29 @@
       <c r="H53" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I53" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>1582</v>
+      </c>
       <c r="K53" s="1" t="s">
-        <v>1570</v>
+        <v>1582</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>1582</v>
       </c>
       <c r="N53" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O53" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>1545</v>
       </c>
@@ -7663,13 +8196,28 @@
         <v>1570</v>
       </c>
       <c r="I54" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>1572</v>
       </c>
+      <c r="K54" s="1" t="s">
+        <v>1582</v>
+      </c>
       <c r="L54" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N54" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>1546</v>
       </c>
@@ -7695,13 +8243,28 @@
         <v>1570</v>
       </c>
       <c r="I55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>1572</v>
       </c>
+      <c r="K55" s="1" t="s">
+        <v>1582</v>
+      </c>
       <c r="L55" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N55" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>1547</v>
       </c>
@@ -7727,19 +8290,28 @@
         <v>1570</v>
       </c>
       <c r="I56" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>1572</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>1570</v>
+        <v>1582</v>
       </c>
       <c r="L56" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>1572</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1582</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>1548</v>
       </c>
@@ -7765,19 +8337,28 @@
         <v>1570</v>
       </c>
       <c r="I57" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J57" s="1" t="s">
         <v>1570</v>
       </c>
       <c r="K57" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="M57" s="1" t="s">
         <v>1570</v>
       </c>
       <c r="N57" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>1549</v>
       </c>
@@ -7802,14 +8383,29 @@
       <c r="H58" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I58" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="J58" s="1" t="s">
-        <v>1570</v>
+        <v>1582</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>1582</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1582</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>1550</v>
       </c>
@@ -7834,14 +8430,29 @@
       <c r="H59" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I59" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="J59" s="1" t="s">
-        <v>1570</v>
+        <v>1582</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>1582</v>
       </c>
       <c r="M59" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="N59" s="1" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O59" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>1551</v>
       </c>
@@ -7866,14 +8477,29 @@
       <c r="H60" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I60" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="J60" s="1" t="s">
-        <v>1570</v>
+        <v>1582</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>1582</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1582</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>1552</v>
       </c>
@@ -7898,14 +8524,29 @@
       <c r="H61" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I61" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="J61" s="1" t="s">
-        <v>1570</v>
+        <v>1588</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>1582</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1582</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>1553</v>
       </c>
@@ -7931,25 +8572,28 @@
         <v>1570</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
       </c>
       <c r="J62" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>1570</v>
-      </c>
       <c r="L62" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>1570</v>
-      </c>
       <c r="N62" s="1" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O62" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>1554</v>
       </c>
@@ -7974,14 +8618,29 @@
       <c r="H63" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>1582</v>
+      </c>
       <c r="K63" s="1" t="s">
-        <v>1570</v>
+        <v>1582</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>1582</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1582</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>1555</v>
       </c>
@@ -8006,17 +8665,38 @@
       <c r="H64" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>1582</v>
+      </c>
       <c r="K64" s="1" t="s">
-        <v>1570</v>
+        <v>1582</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>1582</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1582</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>1556</v>
       </c>
+      <c r="B65" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="D65" s="1" t="s">
         <v>1570</v>
       </c>
@@ -8026,14 +8706,35 @@
       <c r="F65" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="G65" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="I65" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>1576</v>
       </c>
+      <c r="K65" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="L65" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N65" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>1557</v>
       </c>
@@ -8058,14 +8759,29 @@
       <c r="H66" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I66" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="J66" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>1568</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1568</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>1558</v>
       </c>
@@ -8090,14 +8806,29 @@
       <c r="H67" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I67" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="J67" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="K67" s="1" t="s">
         <v>1572</v>
       </c>
+      <c r="L67" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="M67" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N67" s="1" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O67" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>1559</v>
       </c>
@@ -8122,20 +8853,29 @@
       <c r="H68" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I68" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="J68" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="L68" s="1" t="s">
+        <v>1570</v>
+      </c>
       <c r="M68" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>1570</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O68" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>1560</v>
       </c>
@@ -8160,14 +8900,29 @@
       <c r="H69" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I69" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="J69" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>1568</v>
       </c>
       <c r="M69" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N69" s="1" t="s">
         <v>1572</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O69" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>1561</v>
       </c>
@@ -8192,23 +8947,47 @@
       <c r="H70" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="I70" s="1" t="s">
+        <v>183</v>
+      </c>
       <c r="J70" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="L70" s="1" t="s">
+        <v>1570</v>
+      </c>
       <c r="M70" s="1" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="N70" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="O70" s="1" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>1562</v>
       </c>
+      <c r="B71" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="G71" s="1" t="s">
         <v>1570</v>
       </c>
@@ -8216,21 +8995,54 @@
         <v>1570</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>1568</v>
       </c>
       <c r="L71" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="M71" s="1" t="s">
         <v>1576</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N71" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>1563</v>
       </c>
+      <c r="B72" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>1568</v>
+      </c>
       <c r="H72" s="1" t="s">
         <v>1570</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>1570</v>
+        <v>183</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>1570</v>
@@ -8247,9 +9059,12 @@
       <c r="N72" s="1" t="s">
         <v>1570</v>
       </c>
+      <c r="O72" s="1" t="s">
+        <v>1570</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N72"/>
+  <autoFilter ref="A1:O72"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8260,7 +9075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/HoI2Editor/Documents/Design/units.xlsx
+++ b/HoI2Editor/Documents/Design/units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="編集項目" sheetId="5" r:id="rId1"/>
@@ -5668,7 +5668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -20348,8 +20348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20410,7 +20410,7 @@
         <v>1396</v>
       </c>
       <c r="C5" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -20421,7 +20421,7 @@
         <v>335</v>
       </c>
       <c r="C6" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -20432,7 +20432,7 @@
         <v>329</v>
       </c>
       <c r="C7" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">

--- a/HoI2Editor/Documents/Design/units.xlsx
+++ b/HoI2Editor/Documents/Design/units.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="編集項目" sheetId="5" r:id="rId1"/>
@@ -5668,7 +5668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7544,7 +7544,7 @@
         <v>1570</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>1574</v>
+        <v>183</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>1570</v>
@@ -7591,7 +7591,7 @@
         <v>1570</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1575</v>
+        <v>183</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>1570</v>
@@ -20348,7 +20348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
